--- a/DOM_Banner/output/dept_banner/Abhijeet Kumar_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Abhijeet Kumar_2022.xlsx
@@ -1047,7 +1047,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W72650883", "https://openalex.org/W4238372476", "https://openalex.org/W2037863335", "https://openalex.org/W2587050170", "https://openalex.org/W1980656001", "https://openalex.org/W1984329783", "https://openalex.org/W3147111273", "https://openalex.org/W2737196510", "https://openalex.org/W75102634", "https://openalex.org/W2385923267")</t>
+          <t>c("https://openalex.org/W645930773", "https://openalex.org/W4250397071", "https://openalex.org/W2991320778", "https://openalex.org/W1999832612", "https://openalex.org/W3011268210", "https://openalex.org/W3024178724", "https://openalex.org/W4311588896", "https://openalex.org/W4381594543", "https://openalex.org/W2238242969", "https://openalex.org/W4387955394")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1974084203", "https://openalex.org/W4246623133", "https://openalex.org/W3088335083", "https://openalex.org/W3031511517", "https://openalex.org/W2905757675", "https://openalex.org/W4281687647", "https://openalex.org/W3154240502", "https://openalex.org/W4220927442", "https://openalex.org/W2898630421", "https://openalex.org/W2191219754")</t>
+          <t>c("https://openalex.org/W2593690797", "https://openalex.org/W4252379246", "https://openalex.org/W2963940374", "https://openalex.org/W2192521460", "https://openalex.org/W4242455836", "https://openalex.org/W2902484351", "https://openalex.org/W4386269965", "https://openalex.org/W4247333501", "https://openalex.org/W2770178935", "https://openalex.org/W1029379792")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Abhijeet Kumar_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Abhijeet Kumar_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1Center for Lymphoma, Massachusetts General Hospital, Boston, MA; 2New York University School of Medicine, NYU Cancer Institute, New York, NY; 3Department of Lymphoma and Myeloma, The University of Texas MD Anderson Cancer Center, Houston, TX; 4Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 5Swedish Cancer Institute, Seattle, WA; 6Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; 7Department of Hematology and Medical Oncology, Taussig Cancer Institute, Cleveland Clinic Foundation, Cleveland, OH; 8Carbone Cancer Center, University of Wisconsin, Madison, WI; 9Sylvester Comprehensive Cancer Center, University of Miami School of Medicine, Miami, FL; 10Stony Brook University Hospital, Stony Brook, NY; 11University of Texas Southwestern Medical Center, Dallas, TX; 12MEI Pharma, Inc., San Diego, CA; 12MEI Pharma, Inc., San Diego, CA; 13Memorial Sloan Kettering Cancer Center, New York, NY</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310114217</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Safety and Efficacy of the PI3Kδ Inhibitor Zandelisib in Combination with the BTK Inhibitor Zanubrutinib in Patients with Relapsed/Refractory (R/R) Follicular Lymphoma (FL) or Mantle Cell Lymphoma (MCL)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-157563</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-157563</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Lehign Valley Health Network, Allentown, PA;; The University of Arizona, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282011465</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Tisagenlecleucel for secondary CNS lymphoma, a case series.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19507</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19507</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1University of Arizona, Tucson, AZ; 1University of Arizona, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 3Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 4Departments of Pediatrics, University of Arizona, Tucson, AZ; 5University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310106653</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Anti CD19 CAR-T Cell Therapy Can Clear Minimal Residual Disease in Bone Marrow of Patients with Relapsed or Refractory B Cell Non-Hodgkin's Lymphomas</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-170620</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-170620</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1University of Arizona Department of Medicine, Tucson,; 2University of Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 3Department of Internal Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ; 4Department of Hematology, University of Arizona, Tucson, AZ; 5Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 6University of Arizona Cancer Center, University of Arizona College of Medicine, Tucson, AZ; 7Departments of Pediatrics, University of Arizona, Tucson, AZ; 8University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310108057</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome (ICANS) after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>1Hematology/Medical Oncology, University of Arizona, Tucson, AZ; 2University of Arizona, Tucson, AZ; 3Department of Internal Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ; 4University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310112805</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Anti-CD 19 CAR-T Cell Therapy with Tisagenlecleucel for Ritcher Syndrome</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-167450</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-167450</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1Clinical Hematology Department, Hospital Germans Trias i Pujol, Institut Català d'Oncologia, Barcelona, Spain; 2Department of Hematology, Vall d'Hebron Institute of Oncology (VHIO), Hospital Universitari Vall d'Hebron, Barcelona, Spain; 3University of Arizona, Tucson, AZ; 4Lymphoma Unit, Department of Hematology, Fundacion Jimenez Diaz University Hospital, Health Research Institute IIS-FJD, Madrid, Spain; 5Haematology Unit Santa Maria delle Croci Hospital, Ravenna, Italy; 6Incyte Corporation, Wilmington, DE; 6Incyte Corporation, Wilmington, DE; 6Incyte Corporation, Wilmington, DE; 7Clinic Barcelona, Barcelona, Spain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310119385</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Safety and Efficacy of Parsaclisib in Combination with Rituximab, Bendamustine + Rituximab, or Ibrutinib in Patients with Previously Treated B-Cell Lymphoma: Analysis of a Phase 1 Dose-Finding Study (CITADEL-112)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-159703</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-159703</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1Community North Cancer Center, Indianapolis, IN; 2Exelixis, Inc., Alameda, CA; 2Exelixis, Inc., Alameda, CA; 2Exelixis, Inc., Alameda, CA; 3Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310163524</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>A First-in-Human Phase 1 Dose Escalation and Expansion Study of the Oral CARD11-BCL10-MALT1 Signaling Pathway Inhibitor XL114 in Patients with Non-Hodgkin's Lymphoma</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-167824</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-167824</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
